--- a/benchmark/benchmark2_lgbm.xlsx
+++ b/benchmark/benchmark2_lgbm.xlsx
@@ -66,7 +66,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -76,13 +76,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -140,10 +134,10 @@
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -469,7 +463,7 @@
     <col min="7" max="7" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -492,7 +486,7 @@
         <v>6</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
@@ -515,7 +509,7 @@
         <v>124.9511183037362</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
@@ -538,7 +532,7 @@
         <v>0.5851156281294095</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
@@ -561,7 +555,7 @@
         <v>-43.13486580256733</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="3" t="s">
         <v>12</v>
       </c>
@@ -584,7 +578,7 @@
         <v>75.86883633976005</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="3" t="s">
         <v>13</v>
       </c>
@@ -607,7 +601,7 @@
         <v>74.84487926411587</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="3" t="s">
         <v>14</v>
       </c>
